--- a/currentbuild/StructureDefinition-no-doc-Trustframework-Organization-PractitionerLegalentity.xlsx
+++ b/currentbuild/StructureDefinition-no-doc-Trustframework-Organization-PractitionerLegalentity.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T11:47:09+00:00</t>
+    <t>2024-09-10T12:02:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-no-doc-Trustframework-Organization-PractitionerLegalentity.xlsx
+++ b/currentbuild/StructureDefinition-no-doc-Trustframework-Organization-PractitionerLegalentity.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T12:02:36+00:00</t>
+    <t>2024-09-10T12:10:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-no-doc-Trustframework-Organization-PractitionerLegalentity.xlsx
+++ b/currentbuild/StructureDefinition-no-doc-Trustframework-Organization-PractitionerLegalentity.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.6</t>
+    <t>0.9.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T12:10:45+00:00</t>
+    <t>2024-09-11T05:52:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-no-doc-Trustframework-Organization-PractitionerLegalentity.xlsx
+++ b/currentbuild/StructureDefinition-no-doc-Trustframework-Organization-PractitionerLegalentity.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-11T05:52:58+00:00</t>
+    <t>2024-09-11T06:02:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-no-doc-Trustframework-Organization-PractitionerLegalentity.xlsx
+++ b/currentbuild/StructureDefinition-no-doc-Trustframework-Organization-PractitionerLegalentity.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.7</t>
+    <t>0.9.8</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-11T06:02:16+00:00</t>
+    <t>2024-11-07T07:29:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -466,7 +466,7 @@
 </t>
   </si>
   <si>
-    <t>practitioner:legal-entity:id, :system, :authority</t>
+    <t>practitioner:legal_entity:id, :system, :authority</t>
   </si>
   <si>
     <t>Identifier for the organization that is used to identify the organization across multiple disparate systems.</t>
@@ -505,7 +505,7 @@
 </t>
   </si>
   <si>
-    <t>practitioner:legal-entity:id</t>
+    <t>practitioner:legal_entity:id</t>
   </si>
   <si>
     <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
@@ -600,7 +600,7 @@
     <t>Organization.identifier.system</t>
   </si>
   <si>
-    <t>practitioner:legal-entity:system</t>
+    <t>practitioner:legal_entity:system</t>
   </si>
   <si>
     <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
@@ -781,7 +781,7 @@
     <t>Organization.identifier.assigner.display</t>
   </si>
   <si>
-    <t>practitioner:legal-entity:authority</t>
+    <t>practitioner:legal_entity:authority</t>
   </si>
   <si>
     <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
@@ -1220,7 +1220,7 @@
     <t>Organization.name</t>
   </si>
   <si>
-    <t>practitioner:legal-entity:name</t>
+    <t>practitioner:legal_entity:name</t>
   </si>
   <si>
     <t>A name associated with the organization.</t>
